--- a/biology/Histoire de la zoologie et de la botanique/Cornelius_Lott_Shear/Cornelius_Lott_Shear.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cornelius_Lott_Shear/Cornelius_Lott_Shear.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornelius Lott Shear est un botaniste américain, né le 26 mars 1865 à Coeymans Hollow, New York et mort le 2 février 1956 à Los Angeles.
 Il fait ses études à l’Albany State Normal School et à la New York State Normal School. En 1888, il enseigne dans des collèges de New York et du Nebraska. Il obtient en 1897 son Doctorat of Sciences à l’université du Nebraska. En 1901, il obtient son master à la même université et commence à travailler pour le service des plantes industrielles du ministère américain de l’Agriculture. Il s’installe à Washington D.C. en 1906 et devient directeur en 1923 du département de mycologie. En 1927 et 1928, il part à Hawaii récolter des spécimens.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI IdRef LCCN GND CiNii Pays-Bas NUKAT Tchéquie WorldCat 
 Heinrich Dörfelt &amp; Heike Heklau (1998), Die Geschichte der Mykologie.
